--- a/examples/Oracle_CreateTable.xlsx
+++ b/examples/Oracle_CreateTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TEST_TABLE_CHARACTER" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>No.</t>
   </si>
@@ -129,13 +129,22 @@
     <t>COL_DATE</t>
   </si>
   <si>
-    <t>COL_TIMESTAMP</t>
-  </si>
-  <si>
-    <t>COL_TIMESTAMP_TZ</t>
-  </si>
-  <si>
-    <t>COL_TIMESTAMP_LTZ</t>
+    <t>COL_TIMESTAMP_TZ1</t>
+  </si>
+  <si>
+    <t>COL_TIMESTAMP_TZ2</t>
+  </si>
+  <si>
+    <t>COL_TIMESTAMP_LTZ1</t>
+  </si>
+  <si>
+    <t>COL_TIMESTAMP_LTZ2</t>
+  </si>
+  <si>
+    <t>COL_TIMESTAMP1</t>
+  </si>
+  <si>
+    <t>COL_TIMESTAMP2</t>
   </si>
 </sst>
 </file>
@@ -510,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -846,9 +855,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -934,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
@@ -951,15 +960,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -970,29 +979,90 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G9">
       <formula1>"Y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C6">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C9">
       <formula1>"VARCHAR2,CHAR,NUMBER,DATE,TIMESTAMP"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" sqref="E2:E6">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" sqref="E2:E9">
       <formula1>"BYTE,CHAR,TIME ZONE,LOCAL TIME ZONE"</formula1>
     </dataValidation>
   </dataValidations>
